--- a/biology/Botanique/Bystropogon/Bystropogon.xlsx
+++ b/biology/Botanique/Bystropogon/Bystropogon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bystropogon
-Bystropogon est un genre d'arbuste à feuillage persistant de la famille des Lamiaceae. Il est originaire des Îles Canaries et de Madère, dans la partie occidentale de l'Océan Atlantique[1]. Proche des genres Origanum et Thymus, le genre Bystropogon est caractérisé par de minuscules fleurs en grappes très ramifiées, avec des sépales en panache qui s'allongent au stade fructifère, donnant un aspect pelucheux à la pointe de chaque branche. Les tiges ont une section transversale carrée et les feuilles opposées sont aromatiques lorsqu'elles sont broyées.
+Bystropogon est un genre d'arbuste à feuillage persistant de la famille des Lamiaceae. Il est originaire des Îles Canaries et de Madère, dans la partie occidentale de l'Océan Atlantique. Proche des genres Origanum et Thymus, le genre Bystropogon est caractérisé par de minuscules fleurs en grappes très ramifiées, avec des sépales en panache qui s'allongent au stade fructifère, donnant un aspect pelucheux à la pointe de chaque branche. Les tiges ont une section transversale carrée et les feuilles opposées sont aromatiques lorsqu'elles sont broyées.
 Culture La plante préfère les climats doux et secs. Elle se cultive dans des sols très bien drainés exposés au soleil. Elle peut se reproduire à partir de semences ou de boutures.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>De nombreux noms d'espèces ont été proposés pour les membres de ce genre, mais la plupart ont été déplacés vers d'autres genres, en particulier Clinopodium, Minthostachys, Cuminia et Mesosphaerum. Dans la taxonomie actuelle, les espèces suivantes sont reconnues comme appartenant au genre Bystropogon[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>De nombreux noms d'espèces ont été proposés pour les membres de ce genre, mais la plupart ont été déplacés vers d'autres genres, en particulier Clinopodium, Minthostachys, Cuminia et Mesosphaerum. Dans la taxonomie actuelle, les espèces suivantes sont reconnues comme appartenant au genre Bystropogon
 Bystropogon × beltraniae La Serna - Tenerife   (B. canariensis var. smithianus × B. plumosus)
 Bystropogon canariensis (L.) L'Hér. - Îles Canaries
 Bystropogon maderensis Webb &amp; Berthel. - Madère
